--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H2">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I2">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J2">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N2">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O2">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P2">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q2">
-        <v>144.42671719609</v>
+        <v>250.7981430268523</v>
       </c>
       <c r="R2">
-        <v>577.7068687843599</v>
+        <v>1003.192572107409</v>
       </c>
       <c r="S2">
-        <v>0.01595567705138133</v>
+        <v>0.01269995536459153</v>
       </c>
       <c r="T2">
-        <v>0.008959605662560648</v>
+        <v>0.006923277643980106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H3">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I3">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J3">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P3">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q3">
-        <v>35.44755599032666</v>
+        <v>99.34885898145365</v>
       </c>
       <c r="R3">
-        <v>212.68533594196</v>
+        <v>596.0931538887219</v>
       </c>
       <c r="S3">
-        <v>0.003916101997073723</v>
+        <v>0.005030842969409345</v>
       </c>
       <c r="T3">
-        <v>0.003298518406504339</v>
+        <v>0.004113784851275317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H4">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I4">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J4">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N4">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O4">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P4">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q4">
-        <v>55.28987337017666</v>
+        <v>81.45595958679168</v>
       </c>
       <c r="R4">
-        <v>331.73924022106</v>
+        <v>488.73575752075</v>
       </c>
       <c r="S4">
-        <v>0.00610820062127806</v>
+        <v>0.004124779547596036</v>
       </c>
       <c r="T4">
-        <v>0.005144915069873655</v>
+        <v>0.003372885164758588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H5">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I5">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J5">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N5">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O5">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P5">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q5">
-        <v>12.279435381185</v>
+        <v>66.37393679003249</v>
       </c>
       <c r="R5">
-        <v>49.11774152474</v>
+        <v>265.49574716013</v>
       </c>
       <c r="S5">
-        <v>0.00135658214158175</v>
+        <v>0.003361053732026159</v>
       </c>
       <c r="T5">
-        <v>0.0007617627881476986</v>
+        <v>0.001832251176884434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H6">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I6">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J6">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N6">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O6">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P6">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q6">
-        <v>75.17293982328665</v>
+        <v>51.8136192570545</v>
       </c>
       <c r="R6">
-        <v>451.03763893972</v>
+        <v>310.881715542327</v>
       </c>
       <c r="S6">
-        <v>0.008304801037572545</v>
+        <v>0.002623746108726485</v>
       </c>
       <c r="T6">
-        <v>0.006995103576275331</v>
+        <v>0.002145470860709216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H7">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I7">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J7">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N7">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O7">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P7">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q7">
-        <v>32.22764283699333</v>
+        <v>170.8869647958456</v>
       </c>
       <c r="R7">
-        <v>193.36585702196</v>
+        <v>1025.321788775074</v>
       </c>
       <c r="S7">
-        <v>0.003560379071250188</v>
+        <v>0.008653400695496378</v>
       </c>
       <c r="T7">
-        <v>0.002998894285549039</v>
+        <v>0.007075996788134248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>54.548013</v>
       </c>
       <c r="I8">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J8">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N8">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O8">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P8">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q8">
-        <v>1167.352042988521</v>
+        <v>723.2726416938946</v>
       </c>
       <c r="R8">
-        <v>7004.112257931124</v>
+        <v>4339.635850163368</v>
       </c>
       <c r="S8">
-        <v>0.1289643119001759</v>
+        <v>0.03662519249578013</v>
       </c>
       <c r="T8">
-        <v>0.1086261688032557</v>
+        <v>0.02994888987399108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>54.548013</v>
       </c>
       <c r="I9">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J9">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P9">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q9">
         <v>286.5105411769206</v>
@@ -1013,10 +1013,10 @@
         <v>2578.594870592286</v>
       </c>
       <c r="S9">
-        <v>0.03165252077722362</v>
+        <v>0.01450836533523405</v>
       </c>
       <c r="T9">
-        <v>0.03999120393465875</v>
+        <v>0.01779551475640506</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>54.548013</v>
       </c>
       <c r="I10">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J10">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N10">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O10">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P10">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q10">
-        <v>446.8892452053856</v>
+        <v>234.9095027619167</v>
       </c>
       <c r="R10">
-        <v>4022.003206848471</v>
+        <v>2114.18552485725</v>
       </c>
       <c r="S10">
-        <v>0.0493705085365309</v>
+        <v>0.0118953839282427</v>
       </c>
       <c r="T10">
-        <v>0.0623768984826933</v>
+        <v>0.01459051211745156</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>54.548013</v>
       </c>
       <c r="I11">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J11">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N11">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O11">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P11">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q11">
-        <v>99.2505005809265</v>
+        <v>191.414705158365</v>
       </c>
       <c r="R11">
-        <v>595.5030034855589</v>
+        <v>1148.48823095019</v>
       </c>
       <c r="S11">
-        <v>0.01096479214650508</v>
+        <v>0.009692887603946123</v>
       </c>
       <c r="T11">
-        <v>0.00923560437030679</v>
+        <v>0.007925998571748184</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>54.548013</v>
       </c>
       <c r="I12">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J12">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N12">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O12">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P12">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q12">
-        <v>607.5973101363445</v>
+        <v>149.424444788489</v>
       </c>
       <c r="R12">
-        <v>5468.375791227101</v>
+        <v>1344.820003096401</v>
       </c>
       <c r="S12">
-        <v>0.06712488275047462</v>
+        <v>0.007566578270037276</v>
       </c>
       <c r="T12">
-        <v>0.08480856529745714</v>
+        <v>0.009280932217286906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>54.548013</v>
       </c>
       <c r="I13">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J13">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N13">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O13">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P13">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q13">
-        <v>260.4850780855873</v>
+        <v>492.8181084885846</v>
       </c>
       <c r="R13">
-        <v>2344.365702770286</v>
+        <v>4435.362976397261</v>
       </c>
       <c r="S13">
-        <v>0.02877733333088595</v>
+        <v>0.02495540000867287</v>
       </c>
       <c r="T13">
-        <v>0.03635856411029446</v>
+        <v>0.03060952621780426</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H14">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I14">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J14">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N14">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O14">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P14">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q14">
-        <v>939.6790720272875</v>
+        <v>937.332983844379</v>
       </c>
       <c r="R14">
-        <v>5638.074432163725</v>
+        <v>5623.997903066274</v>
       </c>
       <c r="S14">
-        <v>0.1038119268809012</v>
+        <v>0.04746481338702921</v>
       </c>
       <c r="T14">
-        <v>0.08744040678389124</v>
+        <v>0.03881258696951447</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H15">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I15">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J15">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P15">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q15">
-        <v>230.6313344600984</v>
+        <v>371.3064271797656</v>
       </c>
       <c r="R15">
-        <v>2075.682010140886</v>
+        <v>3341.757844617891</v>
       </c>
       <c r="S15">
-        <v>0.02547921300169293</v>
+        <v>0.01880227259602993</v>
       </c>
       <c r="T15">
-        <v>0.03219157205256518</v>
+        <v>0.0230622893555088</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H16">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I16">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J16">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N16">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O16">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P16">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q16">
-        <v>359.7307888017301</v>
+        <v>304.4335046899444</v>
       </c>
       <c r="R16">
-        <v>3237.577099215571</v>
+        <v>2739.9015422095</v>
       </c>
       <c r="S16">
-        <v>0.03974159631258626</v>
+        <v>0.0154159511485478</v>
       </c>
       <c r="T16">
-        <v>0.05021130209538165</v>
+        <v>0.01890873160477775</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H17">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I17">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J17">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N17">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O17">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P17">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q17">
-        <v>79.89330968690983</v>
+        <v>248.0659524430299</v>
       </c>
       <c r="R17">
-        <v>479.359858121459</v>
+        <v>1488.39571465818</v>
       </c>
       <c r="S17">
-        <v>0.008826288325861359</v>
+        <v>0.01256160227296443</v>
       </c>
       <c r="T17">
-        <v>0.007434350414193249</v>
+        <v>0.01027178336761597</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H18">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I18">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J18">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N18">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O18">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P18">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q18">
-        <v>489.0953675752557</v>
+        <v>193.6482214574913</v>
       </c>
       <c r="R18">
-        <v>4401.858308177301</v>
+        <v>1742.833993117422</v>
       </c>
       <c r="S18">
-        <v>0.05403326949377407</v>
+        <v>0.009805988749603149</v>
       </c>
       <c r="T18">
-        <v>0.06826803826432658</v>
+        <v>0.01202772424477894</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H19">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I19">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J19">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N19">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O19">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P19">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q19">
-        <v>209.6817133465428</v>
+        <v>638.6729450187736</v>
       </c>
       <c r="R19">
-        <v>1887.135420118886</v>
+        <v>5748.056505168963</v>
       </c>
       <c r="S19">
-        <v>0.02316478395888048</v>
+        <v>0.03234121990066812</v>
       </c>
       <c r="T19">
-        <v>0.02926741936043548</v>
+        <v>0.03966874576729812</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H20">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I20">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J20">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N20">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O20">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P20">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q20">
-        <v>650.1306794109828</v>
+        <v>667.7522378880105</v>
       </c>
       <c r="R20">
-        <v>2600.522717643931</v>
+        <v>2671.008951552042</v>
       </c>
       <c r="S20">
-        <v>0.07182379661647259</v>
+        <v>0.03381374165468147</v>
       </c>
       <c r="T20">
-        <v>0.04033128101046901</v>
+        <v>0.01843328696334395</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H21">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I21">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J21">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P21">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q21">
-        <v>159.5656545191753</v>
+        <v>264.5172014267392</v>
       </c>
       <c r="R21">
-        <v>957.3939271150517</v>
+        <v>1587.103208560435</v>
       </c>
       <c r="S21">
-        <v>0.01762816535214562</v>
+        <v>0.01339466317709768</v>
       </c>
       <c r="T21">
-        <v>0.01484813927992787</v>
+        <v>0.01095298795866593</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H22">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I22">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J22">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N22">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O22">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P22">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q22">
-        <v>248.8849960488703</v>
+        <v>216.8772011105833</v>
       </c>
       <c r="R22">
-        <v>1493.309976293222</v>
+        <v>1301.2632066635</v>
       </c>
       <c r="S22">
-        <v>0.02749580338725307</v>
+        <v>0.01098226143327963</v>
       </c>
       <c r="T22">
-        <v>0.02315961475013931</v>
+        <v>0.008980336097088549</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H23">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I23">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J23">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N23">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O23">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P23">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q23">
-        <v>55.27535224880949</v>
+        <v>176.721184192485</v>
       </c>
       <c r="R23">
-        <v>221.101408995238</v>
+        <v>706.8847367699399</v>
       </c>
       <c r="S23">
-        <v>0.006106596386774524</v>
+        <v>0.008948834804498615</v>
       </c>
       <c r="T23">
-        <v>0.003429042552674426</v>
+        <v>0.004878384700027568</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H24">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I24">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J24">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N24">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O24">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P24">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q24">
-        <v>338.3877677859272</v>
+        <v>137.954212078321</v>
       </c>
       <c r="R24">
-        <v>2030.326606715564</v>
+        <v>827.7252724699259</v>
       </c>
       <c r="S24">
-        <v>0.03738370604657242</v>
+        <v>0.006985746842489526</v>
       </c>
       <c r="T24">
-        <v>0.03148815903929716</v>
+        <v>0.005712334833391114</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H25">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I25">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J25">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N25">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O25">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P25">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q25">
-        <v>145.0713534185086</v>
+        <v>454.9880305776352</v>
       </c>
       <c r="R25">
-        <v>870.4281205110518</v>
+        <v>2729.928183465811</v>
       </c>
       <c r="S25">
-        <v>0.01602689384270789</v>
+        <v>0.02303975464100905</v>
       </c>
       <c r="T25">
-        <v>0.01349939413701839</v>
+        <v>0.01883990301339322</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H26">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I26">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J26">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N26">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O26">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P26">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q26">
-        <v>116.2415322904277</v>
+        <v>3276.554082065219</v>
       </c>
       <c r="R26">
-        <v>697.449193742566</v>
+        <v>19659.32449239132</v>
       </c>
       <c r="S26">
-        <v>0.01284189231183322</v>
+        <v>0.1659186550972315</v>
       </c>
       <c r="T26">
-        <v>0.01081667898246292</v>
+        <v>0.1356738133218063</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H27">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I27">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J27">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O27">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P27">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q27">
-        <v>28.52988909712511</v>
+        <v>1297.943858417449</v>
       </c>
       <c r="R27">
-        <v>256.769001874126</v>
+        <v>11681.49472575704</v>
       </c>
       <c r="S27">
-        <v>0.003151866258425054</v>
+        <v>0.06572548292705031</v>
       </c>
       <c r="T27">
-        <v>0.003982208153422854</v>
+        <v>0.08061685615675215</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H28">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I28">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J28">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N28">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O28">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P28">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q28">
-        <v>44.49993550685678</v>
+        <v>1064.181949959917</v>
       </c>
       <c r="R28">
-        <v>400.499419561711</v>
+        <v>9577.637549639252</v>
       </c>
       <c r="S28">
-        <v>0.004916172115098981</v>
+        <v>0.05388821105763888</v>
       </c>
       <c r="T28">
-        <v>0.00621131072044907</v>
+        <v>0.0660976225035908</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H29">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I29">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J29">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N29">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O29">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P29">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q29">
-        <v>9.883077120919834</v>
+        <v>867.1427583450451</v>
       </c>
       <c r="R29">
-        <v>59.298462725519</v>
+        <v>5202.85655007027</v>
       </c>
       <c r="S29">
-        <v>0.001091842215046633</v>
+        <v>0.0439105098339255</v>
       </c>
       <c r="T29">
-        <v>0.0009196547092034246</v>
+        <v>0.03590618734573357</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H30">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I30">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J30">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N30">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O30">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P30">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q30">
-        <v>60.50277872044244</v>
+        <v>676.9193887735371</v>
       </c>
       <c r="R30">
-        <v>544.525008483982</v>
+        <v>6092.274498961834</v>
       </c>
       <c r="S30">
-        <v>0.006684101229441371</v>
+        <v>0.03427794926667403</v>
       </c>
       <c r="T30">
-        <v>0.008444991072522712</v>
+        <v>0.04204427844900015</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H31">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I31">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J31">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N31">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O31">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P31">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q31">
-        <v>25.93834893023622</v>
+        <v>2232.553938860761</v>
       </c>
       <c r="R31">
-        <v>233.445140372126</v>
+        <v>20092.98544974684</v>
       </c>
       <c r="S31">
-        <v>0.002865563427679266</v>
+        <v>0.1130524135082569</v>
       </c>
       <c r="T31">
-        <v>0.003620480410725541</v>
+        <v>0.1386666138015981</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H32">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I32">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J32">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N32">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O32">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P32">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q32">
-        <v>666.3612731541406</v>
+        <v>1016.64333444781</v>
       </c>
       <c r="R32">
-        <v>3998.167638924844</v>
+        <v>6099.860006686861</v>
       </c>
       <c r="S32">
-        <v>0.07361688668419454</v>
+        <v>0.05148094325329317</v>
       </c>
       <c r="T32">
-        <v>0.06200723472953722</v>
+        <v>0.0420966278956678</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H33">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I33">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J33">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O33">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P33">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q33">
-        <v>163.5492310459871</v>
+        <v>402.7236966330977</v>
       </c>
       <c r="R33">
-        <v>1471.943079413884</v>
+        <v>3624.513269697879</v>
       </c>
       <c r="S33">
-        <v>0.01806825470545395</v>
+        <v>0.02039318517185367</v>
       </c>
       <c r="T33">
-        <v>0.02282823740184103</v>
+        <v>0.0250136537969919</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H34">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I34">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J34">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N34">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O34">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P34">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q34">
-        <v>255.0984411108638</v>
+        <v>330.1924701894445</v>
       </c>
       <c r="R34">
-        <v>2295.885969997774</v>
+        <v>2971.732231705</v>
       </c>
       <c r="S34">
-        <v>0.02818223955855416</v>
+        <v>0.01672033764891626</v>
       </c>
       <c r="T34">
-        <v>0.03560669614448333</v>
+        <v>0.02050865197340748</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H35">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I35">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J35">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N35">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O35">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P35">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q35">
-        <v>56.65530833267434</v>
+        <v>269.0555025817</v>
       </c>
       <c r="R35">
-        <v>339.931849996046</v>
+        <v>1614.3330154902</v>
       </c>
       <c r="S35">
-        <v>0.006259048329508513</v>
+        <v>0.01362447437666826</v>
       </c>
       <c r="T35">
-        <v>0.00527197354346524</v>
+        <v>0.01114090752546527</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H36">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I36">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J36">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N36">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O36">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P36">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q36">
-        <v>346.8356607411765</v>
+        <v>210.0333360349534</v>
       </c>
       <c r="R36">
-        <v>3121.520946670588</v>
+        <v>1890.30002431458</v>
       </c>
       <c r="S36">
-        <v>0.03831699494474482</v>
+        <v>0.01063570072938924</v>
       </c>
       <c r="T36">
-        <v>0.04841139730334574</v>
+        <v>0.01304542344373637</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H37">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I37">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J37">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N37">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O37">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P37">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q37">
-        <v>148.6930779050982</v>
+        <v>692.7128391262178</v>
       </c>
       <c r="R37">
-        <v>1338.237701145884</v>
+        <v>6234.41555213596</v>
       </c>
       <c r="S37">
-        <v>0.01642700725246327</v>
+        <v>0.03507770046144449</v>
       </c>
       <c r="T37">
-        <v>0.02075461230064469</v>
+        <v>0.04302522867041671</v>
       </c>
     </row>
   </sheetData>
